--- a/angliskas.xlsx
+++ b/angliskas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vartotojas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB9985C-3514-46B6-A9ED-4CF0524FE811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B04C4B2-FD12-458C-9EDB-22C0224FEBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB9F523C-C0D6-415F-9A0B-5D2D9DBC1297}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EB9F523C-C0D6-415F-9A0B-5D2D9DBC1297}"/>
   </bookViews>
   <sheets>
     <sheet name="tv_queries_dataset" sheetId="1" r:id="rId1"/>
@@ -563,9 +563,6 @@
     <t>Gossip Girl, Elite, Euphoria, Sex Education, Pretty Little Liars,  SKAM Norway, Ginny and Georgia, Heartbreak High, Skins, The OC, Teen Wolf, Victorious, Derry Girls, On My Block</t>
   </si>
   <si>
-    <t>Elite, SKAM Norway, Baby, Young Royals, skins, sex education, Normal People, Dark, Killing Eve</t>
-  </si>
-  <si>
     <t>Everything Sucks, Big Mouth, Sex Education, The Summer I Turned Pretty, never have I ever, Atypical, Baby</t>
   </si>
   <si>
@@ -576,6 +573,9 @@
   </si>
   <si>
     <t>The Bear, Bojack Horseman, Breaking Bad, SKAM norway, the witcher, Elementary, Hannibal, Person of Interest, You, Criminal Minds</t>
+  </si>
+  <si>
+    <t>Elite, SKAM Norway, Baby, Young Royals, skins, sex education, Normal People, Dark, Killing Eve, Sherlock</t>
   </si>
 </sst>
 </file>
@@ -1070,55 +1070,54 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="1 antraštė" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="2 antraštė" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="20% – paryškinimas 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% – paryškinimas 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% – paryškinimas 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% – paryškinimas 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% – paryškinimas 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% – paryškinimas 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="3 antraštė" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="4 antraštė" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="40% – paryškinimas 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% – paryškinimas 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% – paryškinimas 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% – paryškinimas 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% – paryškinimas 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% – paryškinimas 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% – paryškinimas 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% – paryškinimas 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% – paryškinimas 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% – paryškinimas 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% – paryškinimas 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% – paryškinimas 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Aiškinamasis tekstas" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Blogas" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Geras" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
+    <cellStyle name="Įspėjimo tekstas" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Išvestis" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Įvestis" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutralus" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Paryškinimas 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Paryškinimas 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Paryškinimas 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Paryškinimas 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Paryškinimas 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Paryškinimas 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Pastaba" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Pavadinimas" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Skaičiavimas" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Susietas langelis" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Tikrinimo langelis" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1452,16 +1451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E18D4B-8ED2-4CCF-BB7C-F72B7092A805}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1517,7 +1516,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1533,7 +1532,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +1716,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1725,7 +1724,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1773,7 +1772,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1813,7 +1812,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1845,7 +1844,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1901,7 +1900,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1909,7 +1908,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1917,7 +1916,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2013,15 +2012,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2037,7 +2036,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2093,7 +2092,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2117,15 +2116,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2133,23 +2132,23 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2157,23 +2156,23 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
